--- a/DashboarJira/PlantillasExcel/HVTICKET.xlsx
+++ b/DashboarJira/PlantillasExcel/HVTICKET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\OneDrive\Documentos\GitHub\IndicadoresSDKJira\DashboarJira\PlantillasExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juana\OneDrive\Documentos\GitHub\IndicadoresSDKJira\DashboarJira\bin\Debug\net6.0\PlantillasExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96268146-02B3-4F45-A4C5-BFED527E23DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545F65E-95BC-4017-A9CE-5A4A878765DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>Attachments</t>
-  </si>
-  <si>
     <t>id_ticket</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>otro_motivo_atraso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{31554C83-B8AE-47C3-A012-6E51421A967C}" name="Tabla1" displayName="Tabla1" ref="A1:AE1048576" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:AE1048576" xr:uid="{31554C83-B8AE-47C3-A012-6E51421A967C}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{31EFBAFA-B8B9-405A-A2B1-94F4C3D4E969}" name="Attachments" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{31EFBAFA-B8B9-405A-A2B1-94F4C3D4E969}" name=" " dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{6635F3A7-E547-4654-990F-299DC0C987F2}" name="id_ticket" dataDxfId="29"/>
     <tableColumn id="3" xr3:uid="{E9929AB0-3951-4B05-B215-DE8CFAC70AF8}" name="id_estacion" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{52FE5EA9-FE2B-4A35-88F4-0BB594297F0B}" name="nombre_estacion" dataDxfId="27"/>
@@ -989,13 +989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="46.42578125" style="2" customWidth="1"/>
@@ -1032,97 +1032,97 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
